--- a/docentes/Velasco Sanchez David - Estadisticos 2020.xlsx
+++ b/docentes/Velasco Sanchez David - Estadisticos 2020.xlsx
@@ -1168,7 +1168,7 @@
         <v>11</v>
       </c>
       <c r="G2">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1191,7 +1191,7 @@
         <v>11</v>
       </c>
       <c r="G3">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1214,7 +1214,7 @@
         <v>11</v>
       </c>
       <c r="G4">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1237,7 +1237,7 @@
         <v>15</v>
       </c>
       <c r="G5">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1260,7 +1260,7 @@
         <v>12</v>
       </c>
       <c r="G6">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1283,7 +1283,7 @@
         <v>14</v>
       </c>
       <c r="G7">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1306,7 +1306,7 @@
         <v>14</v>
       </c>
       <c r="G8">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1329,7 +1329,7 @@
         <v>14</v>
       </c>
       <c r="G9">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1352,7 +1352,7 @@
         <v>12</v>
       </c>
       <c r="G10">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1375,7 +1375,7 @@
         <v>13</v>
       </c>
       <c r="G11">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1398,7 +1398,7 @@
         <v>13</v>
       </c>
       <c r="G12">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1421,7 +1421,7 @@
         <v>14</v>
       </c>
       <c r="G13">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/docentes/Velasco Sanchez David - Estadisticos 2020.xlsx
+++ b/docentes/Velasco Sanchez David - Estadisticos 2020.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="65">
   <si>
     <t>Mat</t>
   </si>
@@ -85,103 +85,133 @@
     <t>Reprobadas</t>
   </si>
   <si>
-    <t>MARIA</t>
+    <t>ARIAS</t>
+  </si>
+  <si>
+    <t>ANTONIO</t>
+  </si>
+  <si>
+    <t>AGUILAR</t>
+  </si>
+  <si>
+    <t>CARRASCO</t>
+  </si>
+  <si>
+    <t>CERON</t>
+  </si>
+  <si>
+    <t>CRUZ</t>
+  </si>
+  <si>
+    <t>GARCIA</t>
+  </si>
+  <si>
+    <t>HERRERA</t>
   </si>
   <si>
     <t>MARTINEZ</t>
   </si>
   <si>
+    <t>OROPEZA</t>
+  </si>
+  <si>
+    <t>RAMIREZ</t>
+  </si>
+  <si>
+    <t>VALLEJO</t>
+  </si>
+  <si>
+    <t>VENEGAS</t>
+  </si>
+  <si>
+    <t>VERA</t>
+  </si>
+  <si>
+    <t>ZEPAHUA</t>
+  </si>
+  <si>
+    <t>HERNANDEZ</t>
+  </si>
+  <si>
+    <t>OFICIAL</t>
+  </si>
+  <si>
     <t>SANCHEZ</t>
   </si>
   <si>
-    <t>RUIZ</t>
-  </si>
-  <si>
-    <t>CRUZ</t>
-  </si>
-  <si>
     <t>LOPEZ</t>
   </si>
   <si>
-    <t>REYES</t>
-  </si>
-  <si>
-    <t>LADINO</t>
-  </si>
-  <si>
-    <t>ESCOBAR</t>
-  </si>
-  <si>
-    <t>GUERRA</t>
-  </si>
-  <si>
-    <t>ZEPAHUA</t>
-  </si>
-  <si>
-    <t>HERNANDEZ</t>
-  </si>
-  <si>
-    <t>JIMENEZ</t>
-  </si>
-  <si>
-    <t>TRUJILLO</t>
-  </si>
-  <si>
-    <t>GONZALEZ</t>
-  </si>
-  <si>
-    <t>NIEVES</t>
+    <t>ARGAES</t>
+  </si>
+  <si>
+    <t>VELAZQUEZ</t>
+  </si>
+  <si>
+    <t>ESTRADA</t>
+  </si>
+  <si>
+    <t>ORTEGA</t>
+  </si>
+  <si>
+    <t>OSORIO</t>
+  </si>
+  <si>
+    <t>DOMINGUEZ</t>
+  </si>
+  <si>
+    <t>ROMAN</t>
+  </si>
+  <si>
+    <t>AMECA</t>
   </si>
   <si>
     <t>APALE</t>
   </si>
   <si>
-    <t>SARMIENTO</t>
-  </si>
-  <si>
-    <t>URBINA</t>
-  </si>
-  <si>
-    <t>ORTEGA</t>
-  </si>
-  <si>
-    <t>CLEMENTE</t>
-  </si>
-  <si>
-    <t>AMALIO JARET</t>
-  </si>
-  <si>
-    <t>OSVALDO</t>
-  </si>
-  <si>
-    <t>ERIK JAIR</t>
-  </si>
-  <si>
-    <t>ALFONSO</t>
-  </si>
-  <si>
-    <t>ITZEL</t>
-  </si>
-  <si>
-    <t>TAURINO JUNIORS</t>
-  </si>
-  <si>
-    <t>MARIA LARET</t>
-  </si>
-  <si>
-    <t>INGRID PAOLA</t>
-  </si>
-  <si>
-    <t>MARIBEL</t>
-  </si>
-  <si>
-    <t>JOSE ARMANDO</t>
-  </si>
-  <si>
-    <t>CHRISTOPHER</t>
-  </si>
-  <si>
-    <t>DAFNE YVETTE</t>
+    <t>JUAN ALBERTO</t>
+  </si>
+  <si>
+    <t>EDUARDO</t>
+  </si>
+  <si>
+    <t>ALEXANDER</t>
+  </si>
+  <si>
+    <t>CARLOS</t>
+  </si>
+  <si>
+    <t>ROSENDO DANIEL</t>
+  </si>
+  <si>
+    <t>LUIS ANTONIO</t>
+  </si>
+  <si>
+    <t>JUAN CARLOS</t>
+  </si>
+  <si>
+    <t>ANDRES</t>
+  </si>
+  <si>
+    <t>MARIA ISABEL</t>
+  </si>
+  <si>
+    <t>JESUS</t>
+  </si>
+  <si>
+    <t>NATANAEL</t>
+  </si>
+  <si>
+    <t>GAMADIEL ABRAHAM</t>
+  </si>
+  <si>
+    <t>ANGEL ISMAEL</t>
+  </si>
+  <si>
+    <t>FELIPE</t>
+  </si>
+  <si>
+    <t>PEDRO</t>
   </si>
 </sst>
 </file>
@@ -1115,7 +1145,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1150,16 +1180,16 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>18330051920069</v>
+        <v>18330051920143</v>
       </c>
       <c r="B2" t="s">
         <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
@@ -1173,16 +1203,16 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>18330051920163</v>
+        <v>18330051920141</v>
       </c>
       <c r="B3" t="s">
         <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D3" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
@@ -1196,16 +1226,16 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>18330051920176</v>
+        <v>18330051920138</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D4" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="E4" t="s">
         <v>9</v>
@@ -1219,22 +1249,22 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>17330051920160</v>
+        <v>18330051920146</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="D5" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="E5" t="s">
         <v>9</v>
       </c>
       <c r="F5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G5">
         <v>2</v>
@@ -1242,22 +1272,22 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>18330051920218</v>
+        <v>18330051920148</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D6" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="E6" t="s">
         <v>9</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -1265,22 +1295,22 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>18330051920318</v>
+        <v>18330051920153</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
         <v>37</v>
       </c>
       <c r="D7" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="E7" t="s">
         <v>9</v>
       </c>
       <c r="F7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -1288,22 +1318,22 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>18330051920424</v>
+        <v>18330051920020</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D8" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="E8" t="s">
         <v>9</v>
       </c>
       <c r="F8" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -1311,22 +1341,22 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>18330051920342</v>
+        <v>18330051920157</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D9" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="E9" t="s">
         <v>9</v>
       </c>
       <c r="F9" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G9">
         <v>2</v>
@@ -1334,94 +1364,163 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>18330051920213</v>
+        <v>18330051920162</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C10" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D10" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="E10" t="s">
         <v>9</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>18330051920389</v>
+        <v>18330051920166</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D11" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="E11" t="s">
         <v>9</v>
       </c>
       <c r="F11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
-        <v>18330051920398</v>
+        <v>18330051920169</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C12" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D12" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="E12" t="s">
         <v>9</v>
       </c>
       <c r="F12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G12">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13">
-        <v>18330051920428</v>
+        <v>18330051920178</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C13" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D13" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="E13" t="s">
         <v>9</v>
       </c>
       <c r="F13" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G13">
-        <v>1</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>18330051920180</v>
+      </c>
+      <c r="B14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" t="s">
+        <v>62</v>
+      </c>
+      <c r="E14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>18330051920181</v>
+      </c>
+      <c r="B15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" t="s">
+        <v>63</v>
+      </c>
+      <c r="E15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>18330051920182</v>
+      </c>
+      <c r="B16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/docentes/Velasco Sanchez David - Estadisticos 2020.xlsx
+++ b/docentes/Velasco Sanchez David - Estadisticos 2020.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="177">
   <si>
     <t>Mat</t>
   </si>
@@ -100,6 +100,12 @@
     <t>CERON</t>
   </si>
   <si>
+    <t>CERVANTES</t>
+  </si>
+  <si>
+    <t>CRISTOBAL</t>
+  </si>
+  <si>
     <t>CRUZ</t>
   </si>
   <si>
@@ -118,6 +124,9 @@
     <t>RAMIREZ</t>
   </si>
   <si>
+    <t>SANCHEZ</t>
+  </si>
+  <si>
     <t>VALLEJO</t>
   </si>
   <si>
@@ -130,21 +139,120 @@
     <t>ZEPAHUA</t>
   </si>
   <si>
+    <t>MARQUEZ</t>
+  </si>
+  <si>
+    <t>GUERRA</t>
+  </si>
+  <si>
+    <t>LOPEZ</t>
+  </si>
+  <si>
+    <t>MORALES</t>
+  </si>
+  <si>
+    <t>REYES</t>
+  </si>
+  <si>
+    <t>TEXOCO</t>
+  </si>
+  <si>
+    <t>ALDAZABA</t>
+  </si>
+  <si>
+    <t>ARANA</t>
+  </si>
+  <si>
+    <t>ARELLANO</t>
+  </si>
+  <si>
+    <t>AVENDAÑO</t>
+  </si>
+  <si>
+    <t>BRAVO</t>
+  </si>
+  <si>
+    <t>COCOTLE</t>
+  </si>
+  <si>
+    <t>DIAZ</t>
+  </si>
+  <si>
     <t>HERNANDEZ</t>
   </si>
   <si>
+    <t>DE JESUS</t>
+  </si>
+  <si>
+    <t>JIMENEZ</t>
+  </si>
+  <si>
+    <t>JUAREZ</t>
+  </si>
+  <si>
+    <t>LUNA</t>
+  </si>
+  <si>
+    <t>MIXCOHUA</t>
+  </si>
+  <si>
+    <t>NIETO</t>
+  </si>
+  <si>
+    <t>OROZCO</t>
+  </si>
+  <si>
+    <t>QUERO</t>
+  </si>
+  <si>
+    <t>RODRIGUEZ</t>
+  </si>
+  <si>
+    <t>SANDOVAL</t>
+  </si>
+  <si>
+    <t>VAZQUEZ</t>
+  </si>
+  <si>
+    <t>XICALHUA</t>
+  </si>
+  <si>
+    <t>BUSTOS</t>
+  </si>
+  <si>
+    <t>BAEZ</t>
+  </si>
+  <si>
+    <t>GONZALEZ</t>
+  </si>
+  <si>
+    <t>MAZAHUA</t>
+  </si>
+  <si>
+    <t>MARCELINO</t>
+  </si>
+  <si>
+    <t>ROSAS</t>
+  </si>
+  <si>
+    <t>VASQUEZ</t>
+  </si>
+  <si>
+    <t>ZARATE</t>
+  </si>
+  <si>
     <t>OFICIAL</t>
   </si>
   <si>
-    <t>SANCHEZ</t>
-  </si>
-  <si>
-    <t>LOPEZ</t>
-  </si>
-  <si>
     <t>ARGAES</t>
   </si>
   <si>
+    <t>TENTZOHUA</t>
+  </si>
+  <si>
+    <t>ROMERO</t>
+  </si>
+  <si>
     <t>VELAZQUEZ</t>
   </si>
   <si>
@@ -160,6 +268,9 @@
     <t>DOMINGUEZ</t>
   </si>
   <si>
+    <t>TRUJILLO</t>
+  </si>
+  <si>
     <t>ROMAN</t>
   </si>
   <si>
@@ -169,6 +280,81 @@
     <t>APALE</t>
   </si>
   <si>
+    <t>OLMEDO</t>
+  </si>
+  <si>
+    <t>TREJO</t>
+  </si>
+  <si>
+    <t>SARMIENTO</t>
+  </si>
+  <si>
+    <t>RIVERA</t>
+  </si>
+  <si>
+    <t>TORRES</t>
+  </si>
+  <si>
+    <t>PACHECO</t>
+  </si>
+  <si>
+    <t>SANTIAGO</t>
+  </si>
+  <si>
+    <t>SESMA</t>
+  </si>
+  <si>
+    <t>CARVAJAL</t>
+  </si>
+  <si>
+    <t>CASTAÑEDA</t>
+  </si>
+  <si>
+    <t>ANGEL</t>
+  </si>
+  <si>
+    <t>MONSTRANZO</t>
+  </si>
+  <si>
+    <t>ZACARIAS</t>
+  </si>
+  <si>
+    <t>RICO</t>
+  </si>
+  <si>
+    <t>TLAXCALA</t>
+  </si>
+  <si>
+    <t>MONTALVO</t>
+  </si>
+  <si>
+    <t>DE LA CRUZ</t>
+  </si>
+  <si>
+    <t>FLORES</t>
+  </si>
+  <si>
+    <t>ROJAS</t>
+  </si>
+  <si>
+    <t>IXMATLAHUA</t>
+  </si>
+  <si>
+    <t>SALVADOR</t>
+  </si>
+  <si>
+    <t>TEXCAHUA</t>
+  </si>
+  <si>
+    <t>OLTEHUA</t>
+  </si>
+  <si>
+    <t>CASTILLO</t>
+  </si>
+  <si>
+    <t>CLEMENTE</t>
+  </si>
+  <si>
     <t>JUAN ALBERTO</t>
   </si>
   <si>
@@ -184,6 +370,12 @@
     <t>ROSENDO DANIEL</t>
   </si>
   <si>
+    <t>GONZALO</t>
+  </si>
+  <si>
+    <t>EDGAR ARMANDO</t>
+  </si>
+  <si>
     <t>LUIS ANTONIO</t>
   </si>
   <si>
@@ -196,12 +388,18 @@
     <t>MARIA ISABEL</t>
   </si>
   <si>
+    <t>ALONSO ELIAS</t>
+  </si>
+  <si>
     <t>JESUS</t>
   </si>
   <si>
     <t>NATANAEL</t>
   </si>
   <si>
+    <t>ERIK JAIR</t>
+  </si>
+  <si>
     <t>GAMADIEL ABRAHAM</t>
   </si>
   <si>
@@ -212,6 +410,144 @@
   </si>
   <si>
     <t>PEDRO</t>
+  </si>
+  <si>
+    <t>PAOLA BETSABET</t>
+  </si>
+  <si>
+    <t>JOCELYN</t>
+  </si>
+  <si>
+    <t>MARIA LARET</t>
+  </si>
+  <si>
+    <t>SILVIA ESMERALDA</t>
+  </si>
+  <si>
+    <t>ROCIO TAMARA</t>
+  </si>
+  <si>
+    <t>INGRID PAOLA</t>
+  </si>
+  <si>
+    <t>MAYTE</t>
+  </si>
+  <si>
+    <t>QUETZALI</t>
+  </si>
+  <si>
+    <t>INGRID YOSELIN</t>
+  </si>
+  <si>
+    <t>ABIRAM</t>
+  </si>
+  <si>
+    <t>XIMENA</t>
+  </si>
+  <si>
+    <t>TATIANA</t>
+  </si>
+  <si>
+    <t>LAUDY VANESSA</t>
+  </si>
+  <si>
+    <t>LIZETH</t>
+  </si>
+  <si>
+    <t>DIANA LAURA</t>
+  </si>
+  <si>
+    <t>VIVIANA</t>
+  </si>
+  <si>
+    <t>FLOR LIZZETH</t>
+  </si>
+  <si>
+    <t>LISBET</t>
+  </si>
+  <si>
+    <t>DULCE MARIA</t>
+  </si>
+  <si>
+    <t>YAZMIN</t>
+  </si>
+  <si>
+    <t>MARIA GUADALUPE</t>
+  </si>
+  <si>
+    <t>SEHANI</t>
+  </si>
+  <si>
+    <t>ANGEL DE JESUS</t>
+  </si>
+  <si>
+    <t>ARELI</t>
+  </si>
+  <si>
+    <t>REBECA MELISA</t>
+  </si>
+  <si>
+    <t>LOURDES</t>
+  </si>
+  <si>
+    <t>NANCY BETSABE</t>
+  </si>
+  <si>
+    <t>JESICA</t>
+  </si>
+  <si>
+    <t>MARIA DEL PILAR</t>
+  </si>
+  <si>
+    <t>KAREN VANESSA</t>
+  </si>
+  <si>
+    <t>GALILEA</t>
+  </si>
+  <si>
+    <t>JESSICA VICTORIA</t>
+  </si>
+  <si>
+    <t>YAMILETH</t>
+  </si>
+  <si>
+    <t>JOALY</t>
+  </si>
+  <si>
+    <t>GABRIELA ANGELICA</t>
+  </si>
+  <si>
+    <t>ALMA</t>
+  </si>
+  <si>
+    <t>DENISSE GUADALUPE</t>
+  </si>
+  <si>
+    <t>DIANA</t>
+  </si>
+  <si>
+    <t>JOEL</t>
+  </si>
+  <si>
+    <t>SOFIA</t>
+  </si>
+  <si>
+    <t>ELIZABETH</t>
+  </si>
+  <si>
+    <t>VIANEY</t>
+  </si>
+  <si>
+    <t>DAVID</t>
+  </si>
+  <si>
+    <t>VICTORIA</t>
+  </si>
+  <si>
+    <t>MIGUEL ANGEL</t>
+  </si>
+  <si>
+    <t>DAFNE YVETTE</t>
   </si>
 </sst>
 </file>
@@ -615,19 +951,19 @@
         <v>37</v>
       </c>
       <c r="D2">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F2">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="G2">
-        <v>64.86</v>
+        <v>78.38</v>
       </c>
       <c r="H2">
-        <v>8.300000000000001</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -813,16 +1149,19 @@
         <v>37</v>
       </c>
       <c r="D2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="E2">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>48.65</v>
+      </c>
+      <c r="H2">
+        <v>8.5</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -993,19 +1332,19 @@
         <v>37</v>
       </c>
       <c r="D2">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F2">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="G2">
-        <v>64.86</v>
+        <v>78.38</v>
       </c>
       <c r="H2">
-        <v>8.300000000000001</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1145,7 +1484,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G67"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1186,10 +1525,10 @@
         <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="D2" t="s">
-        <v>50</v>
+        <v>112</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
@@ -1209,10 +1548,10 @@
         <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="D3" t="s">
-        <v>51</v>
+        <v>113</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
@@ -1232,10 +1571,10 @@
         <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D4" t="s">
-        <v>52</v>
+        <v>114</v>
       </c>
       <c r="E4" t="s">
         <v>9</v>
@@ -1255,10 +1594,10 @@
         <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D5" t="s">
-        <v>53</v>
+        <v>115</v>
       </c>
       <c r="E5" t="s">
         <v>9</v>
@@ -1278,10 +1617,10 @@
         <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="D6" t="s">
-        <v>54</v>
+        <v>116</v>
       </c>
       <c r="E6" t="s">
         <v>9</v>
@@ -1295,16 +1634,16 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>18330051920153</v>
+        <v>18330051920149</v>
       </c>
       <c r="B7" t="s">
         <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="D7" t="s">
-        <v>55</v>
+        <v>117</v>
       </c>
       <c r="E7" t="s">
         <v>9</v>
@@ -1318,16 +1657,16 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>18330051920020</v>
+        <v>18330051920152</v>
       </c>
       <c r="B8" t="s">
         <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="D8" t="s">
-        <v>56</v>
+        <v>118</v>
       </c>
       <c r="E8" t="s">
         <v>9</v>
@@ -1341,16 +1680,16 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>18330051920157</v>
+        <v>18330051920153</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="D9" t="s">
-        <v>57</v>
+        <v>119</v>
       </c>
       <c r="E9" t="s">
         <v>9</v>
@@ -1364,16 +1703,16 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>18330051920162</v>
+        <v>18330051920020</v>
       </c>
       <c r="B10" t="s">
         <v>30</v>
       </c>
       <c r="C10" t="s">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="D10" t="s">
-        <v>58</v>
+        <v>120</v>
       </c>
       <c r="E10" t="s">
         <v>9</v>
@@ -1387,16 +1726,16 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>18330051920166</v>
+        <v>18330051920157</v>
       </c>
       <c r="B11" t="s">
         <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="D11" t="s">
-        <v>59</v>
+        <v>121</v>
       </c>
       <c r="E11" t="s">
         <v>9</v>
@@ -1410,16 +1749,16 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
-        <v>18330051920169</v>
+        <v>18330051920162</v>
       </c>
       <c r="B12" t="s">
         <v>32</v>
       </c>
       <c r="C12" t="s">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="D12" t="s">
-        <v>60</v>
+        <v>122</v>
       </c>
       <c r="E12" t="s">
         <v>9</v>
@@ -1433,16 +1772,16 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13">
-        <v>18330051920178</v>
+        <v>18330051920161</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C13" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="D13" t="s">
-        <v>61</v>
+        <v>123</v>
       </c>
       <c r="E13" t="s">
         <v>9</v>
@@ -1456,16 +1795,16 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14">
-        <v>18330051920180</v>
+        <v>18330051920166</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C14" t="s">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="D14" t="s">
-        <v>62</v>
+        <v>124</v>
       </c>
       <c r="E14" t="s">
         <v>9</v>
@@ -1479,16 +1818,16 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15">
-        <v>18330051920181</v>
+        <v>18330051920169</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C15" t="s">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="D15" t="s">
-        <v>63</v>
+        <v>125</v>
       </c>
       <c r="E15" t="s">
         <v>9</v>
@@ -1502,16 +1841,16 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16">
-        <v>18330051920182</v>
+        <v>18330051920176</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C16" t="s">
-        <v>49</v>
+        <v>83</v>
       </c>
       <c r="D16" t="s">
-        <v>64</v>
+        <v>126</v>
       </c>
       <c r="E16" t="s">
         <v>9</v>
@@ -1521,6 +1860,1179 @@
       </c>
       <c r="G16">
         <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17">
+        <v>18330051920178</v>
+      </c>
+      <c r="B17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" t="s">
+        <v>84</v>
+      </c>
+      <c r="D17" t="s">
+        <v>127</v>
+      </c>
+      <c r="E17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18">
+        <v>18330051920180</v>
+      </c>
+      <c r="B18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" t="s">
+        <v>85</v>
+      </c>
+      <c r="D18" t="s">
+        <v>128</v>
+      </c>
+      <c r="E18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19">
+        <v>18330051920181</v>
+      </c>
+      <c r="B19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" t="s">
+        <v>129</v>
+      </c>
+      <c r="E19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20">
+        <v>18330051920182</v>
+      </c>
+      <c r="B20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" t="s">
+        <v>86</v>
+      </c>
+      <c r="D20" t="s">
+        <v>130</v>
+      </c>
+      <c r="E20" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21">
+        <v>18330051920217</v>
+      </c>
+      <c r="B21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" t="s">
+        <v>53</v>
+      </c>
+      <c r="D21" t="s">
+        <v>121</v>
+      </c>
+      <c r="E21" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22">
+        <v>18330051920429</v>
+      </c>
+      <c r="B22" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" t="s">
+        <v>87</v>
+      </c>
+      <c r="D22" t="s">
+        <v>131</v>
+      </c>
+      <c r="E22" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23">
+        <v>18330051920329</v>
+      </c>
+      <c r="B23" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" t="s">
+        <v>77</v>
+      </c>
+      <c r="D23" t="s">
+        <v>132</v>
+      </c>
+      <c r="E23" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" t="s">
+        <v>14</v>
+      </c>
+      <c r="G23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24">
+        <v>18330051920424</v>
+      </c>
+      <c r="B24" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" t="s">
+        <v>86</v>
+      </c>
+      <c r="D24" t="s">
+        <v>133</v>
+      </c>
+      <c r="E24" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" t="s">
+        <v>14</v>
+      </c>
+      <c r="G24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25">
+        <v>18330051920333</v>
+      </c>
+      <c r="B25" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" t="s">
+        <v>43</v>
+      </c>
+      <c r="D25" t="s">
+        <v>134</v>
+      </c>
+      <c r="E25" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" t="s">
+        <v>14</v>
+      </c>
+      <c r="G25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26">
+        <v>18330051920339</v>
+      </c>
+      <c r="B26" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" t="s">
+        <v>88</v>
+      </c>
+      <c r="D26" t="s">
+        <v>135</v>
+      </c>
+      <c r="E26" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" t="s">
+        <v>14</v>
+      </c>
+      <c r="G26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27">
+        <v>18330051920342</v>
+      </c>
+      <c r="B27" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" t="s">
+        <v>89</v>
+      </c>
+      <c r="D27" t="s">
+        <v>136</v>
+      </c>
+      <c r="E27" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27" t="s">
+        <v>14</v>
+      </c>
+      <c r="G27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28">
+        <v>18330051920347</v>
+      </c>
+      <c r="B28" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" t="s">
+        <v>54</v>
+      </c>
+      <c r="D28" t="s">
+        <v>137</v>
+      </c>
+      <c r="E28" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28" t="s">
+        <v>14</v>
+      </c>
+      <c r="G28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29">
+        <v>18330051920352</v>
+      </c>
+      <c r="B29" t="s">
+        <v>39</v>
+      </c>
+      <c r="C29" t="s">
+        <v>56</v>
+      </c>
+      <c r="D29" t="s">
+        <v>138</v>
+      </c>
+      <c r="E29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F29" t="s">
+        <v>14</v>
+      </c>
+      <c r="G29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30">
+        <v>18330051920192</v>
+      </c>
+      <c r="B30" t="s">
+        <v>46</v>
+      </c>
+      <c r="C30" t="s">
+        <v>42</v>
+      </c>
+      <c r="D30" t="s">
+        <v>139</v>
+      </c>
+      <c r="E30" t="s">
+        <v>9</v>
+      </c>
+      <c r="F30" t="s">
+        <v>12</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31">
+        <v>18330051920193</v>
+      </c>
+      <c r="B31" t="s">
+        <v>47</v>
+      </c>
+      <c r="C31" t="s">
+        <v>35</v>
+      </c>
+      <c r="D31" t="s">
+        <v>140</v>
+      </c>
+      <c r="E31" t="s">
+        <v>9</v>
+      </c>
+      <c r="F31" t="s">
+        <v>12</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32">
+        <v>18330051920194</v>
+      </c>
+      <c r="B32" t="s">
+        <v>48</v>
+      </c>
+      <c r="C32" t="s">
+        <v>90</v>
+      </c>
+      <c r="D32" t="s">
+        <v>141</v>
+      </c>
+      <c r="E32" t="s">
+        <v>9</v>
+      </c>
+      <c r="F32" t="s">
+        <v>12</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33">
+        <v>18330051920087</v>
+      </c>
+      <c r="B33" t="s">
+        <v>49</v>
+      </c>
+      <c r="C33" t="s">
+        <v>91</v>
+      </c>
+      <c r="D33" t="s">
+        <v>142</v>
+      </c>
+      <c r="E33" t="s">
+        <v>9</v>
+      </c>
+      <c r="F33" t="s">
+        <v>12</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34">
+        <v>18330051920196</v>
+      </c>
+      <c r="B34" t="s">
+        <v>50</v>
+      </c>
+      <c r="C34" t="s">
+        <v>92</v>
+      </c>
+      <c r="D34" t="s">
+        <v>143</v>
+      </c>
+      <c r="E34" t="s">
+        <v>9</v>
+      </c>
+      <c r="F34" t="s">
+        <v>12</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35">
+        <v>18330051920200</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>93</v>
+      </c>
+      <c r="D35" t="s">
+        <v>144</v>
+      </c>
+      <c r="E35" t="s">
+        <v>9</v>
+      </c>
+      <c r="F35" t="s">
+        <v>12</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36">
+        <v>18330051920201</v>
+      </c>
+      <c r="B36" t="s">
+        <v>51</v>
+      </c>
+      <c r="C36" t="s">
+        <v>32</v>
+      </c>
+      <c r="D36" t="s">
+        <v>145</v>
+      </c>
+      <c r="E36" t="s">
+        <v>9</v>
+      </c>
+      <c r="F36" t="s">
+        <v>12</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37">
+        <v>18330051920203</v>
+      </c>
+      <c r="B37" t="s">
+        <v>29</v>
+      </c>
+      <c r="C37" t="s">
+        <v>83</v>
+      </c>
+      <c r="D37" t="s">
+        <v>146</v>
+      </c>
+      <c r="E37" t="s">
+        <v>9</v>
+      </c>
+      <c r="F37" t="s">
+        <v>12</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38">
+        <v>18330051920094</v>
+      </c>
+      <c r="B38" t="s">
+        <v>52</v>
+      </c>
+      <c r="C38" t="s">
+        <v>94</v>
+      </c>
+      <c r="D38" t="s">
+        <v>147</v>
+      </c>
+      <c r="E38" t="s">
+        <v>9</v>
+      </c>
+      <c r="F38" t="s">
+        <v>12</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39">
+        <v>18330051920209</v>
+      </c>
+      <c r="B39" t="s">
+        <v>53</v>
+      </c>
+      <c r="C39" t="s">
+        <v>95</v>
+      </c>
+      <c r="D39" t="s">
+        <v>148</v>
+      </c>
+      <c r="E39" t="s">
+        <v>9</v>
+      </c>
+      <c r="F39" t="s">
+        <v>12</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40">
+        <v>18330051920210</v>
+      </c>
+      <c r="B40" t="s">
+        <v>53</v>
+      </c>
+      <c r="C40" t="s">
+        <v>68</v>
+      </c>
+      <c r="D40" t="s">
+        <v>149</v>
+      </c>
+      <c r="E40" t="s">
+        <v>9</v>
+      </c>
+      <c r="F40" t="s">
+        <v>12</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41">
+        <v>18330051920205</v>
+      </c>
+      <c r="B41" t="s">
+        <v>54</v>
+      </c>
+      <c r="C41" t="s">
+        <v>86</v>
+      </c>
+      <c r="D41" t="s">
+        <v>150</v>
+      </c>
+      <c r="E41" t="s">
+        <v>9</v>
+      </c>
+      <c r="F41" t="s">
+        <v>12</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42">
+        <v>18330051920211</v>
+      </c>
+      <c r="B42" t="s">
+        <v>55</v>
+      </c>
+      <c r="C42" t="s">
+        <v>96</v>
+      </c>
+      <c r="D42" t="s">
+        <v>151</v>
+      </c>
+      <c r="E42" t="s">
+        <v>9</v>
+      </c>
+      <c r="F42" t="s">
+        <v>12</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43">
+        <v>18330051920212</v>
+      </c>
+      <c r="B43" t="s">
+        <v>56</v>
+      </c>
+      <c r="C43" t="s">
+        <v>53</v>
+      </c>
+      <c r="D43" t="s">
+        <v>152</v>
+      </c>
+      <c r="E43" t="s">
+        <v>9</v>
+      </c>
+      <c r="F43" t="s">
+        <v>12</v>
+      </c>
+      <c r="G43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44">
+        <v>18330051920215</v>
+      </c>
+      <c r="B44" t="s">
+        <v>42</v>
+      </c>
+      <c r="C44" t="s">
+        <v>24</v>
+      </c>
+      <c r="D44" t="s">
+        <v>153</v>
+      </c>
+      <c r="E44" t="s">
+        <v>9</v>
+      </c>
+      <c r="F44" t="s">
+        <v>12</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45">
+        <v>18330051920216</v>
+      </c>
+      <c r="B45" t="s">
+        <v>57</v>
+      </c>
+      <c r="C45" t="s">
+        <v>97</v>
+      </c>
+      <c r="D45" t="s">
+        <v>154</v>
+      </c>
+      <c r="E45" t="s">
+        <v>9</v>
+      </c>
+      <c r="F45" t="s">
+        <v>12</v>
+      </c>
+      <c r="G45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46">
+        <v>18330051920223</v>
+      </c>
+      <c r="B46" t="s">
+        <v>58</v>
+      </c>
+      <c r="C46" t="s">
+        <v>39</v>
+      </c>
+      <c r="D46" t="s">
+        <v>155</v>
+      </c>
+      <c r="E46" t="s">
+        <v>9</v>
+      </c>
+      <c r="F46" t="s">
+        <v>12</v>
+      </c>
+      <c r="G46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47">
+        <v>18330051920229</v>
+      </c>
+      <c r="B47" t="s">
+        <v>59</v>
+      </c>
+      <c r="C47" t="s">
+        <v>98</v>
+      </c>
+      <c r="D47" t="s">
+        <v>156</v>
+      </c>
+      <c r="E47" t="s">
+        <v>9</v>
+      </c>
+      <c r="F47" t="s">
+        <v>12</v>
+      </c>
+      <c r="G47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48">
+        <v>18330051920230</v>
+      </c>
+      <c r="B48" t="s">
+        <v>60</v>
+      </c>
+      <c r="C48" t="s">
+        <v>29</v>
+      </c>
+      <c r="D48" t="s">
+        <v>157</v>
+      </c>
+      <c r="E48" t="s">
+        <v>9</v>
+      </c>
+      <c r="F48" t="s">
+        <v>12</v>
+      </c>
+      <c r="G48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49">
+        <v>18330051920231</v>
+      </c>
+      <c r="B49" t="s">
+        <v>61</v>
+      </c>
+      <c r="C49" t="s">
+        <v>71</v>
+      </c>
+      <c r="D49" t="s">
+        <v>158</v>
+      </c>
+      <c r="E49" t="s">
+        <v>9</v>
+      </c>
+      <c r="F49" t="s">
+        <v>12</v>
+      </c>
+      <c r="G49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50">
+        <v>18330051920232</v>
+      </c>
+      <c r="B50" t="s">
+        <v>62</v>
+      </c>
+      <c r="C50" t="s">
+        <v>99</v>
+      </c>
+      <c r="D50" t="s">
+        <v>159</v>
+      </c>
+      <c r="E50" t="s">
+        <v>9</v>
+      </c>
+      <c r="F50" t="s">
+        <v>12</v>
+      </c>
+      <c r="G50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51">
+        <v>18330051920186</v>
+      </c>
+      <c r="B51" t="s">
+        <v>63</v>
+      </c>
+      <c r="C51" t="s">
+        <v>55</v>
+      </c>
+      <c r="D51" t="s">
+        <v>160</v>
+      </c>
+      <c r="E51" t="s">
+        <v>9</v>
+      </c>
+      <c r="F51" t="s">
+        <v>12</v>
+      </c>
+      <c r="G51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52">
+        <v>18330051920233</v>
+      </c>
+      <c r="B52" t="s">
+        <v>35</v>
+      </c>
+      <c r="C52" t="s">
+        <v>42</v>
+      </c>
+      <c r="D52" t="s">
+        <v>161</v>
+      </c>
+      <c r="E52" t="s">
+        <v>9</v>
+      </c>
+      <c r="F52" t="s">
+        <v>12</v>
+      </c>
+      <c r="G52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53">
+        <v>18330051920137</v>
+      </c>
+      <c r="B53" t="s">
+        <v>64</v>
+      </c>
+      <c r="C53" t="s">
+        <v>100</v>
+      </c>
+      <c r="D53" t="s">
+        <v>162</v>
+      </c>
+      <c r="E53" t="s">
+        <v>9</v>
+      </c>
+      <c r="F53" t="s">
+        <v>12</v>
+      </c>
+      <c r="G53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54">
+        <v>18330051920234</v>
+      </c>
+      <c r="B54" t="s">
+        <v>65</v>
+      </c>
+      <c r="C54" t="s">
+        <v>101</v>
+      </c>
+      <c r="D54" t="s">
+        <v>163</v>
+      </c>
+      <c r="E54" t="s">
+        <v>9</v>
+      </c>
+      <c r="F54" t="s">
+        <v>12</v>
+      </c>
+      <c r="G54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55">
+        <v>18330051920315</v>
+      </c>
+      <c r="B55" t="s">
+        <v>47</v>
+      </c>
+      <c r="C55" t="s">
+        <v>102</v>
+      </c>
+      <c r="D55" t="s">
+        <v>164</v>
+      </c>
+      <c r="E55" t="s">
+        <v>9</v>
+      </c>
+      <c r="F55" t="s">
+        <v>14</v>
+      </c>
+      <c r="G55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56">
+        <v>18330051920317</v>
+      </c>
+      <c r="B56" t="s">
+        <v>66</v>
+      </c>
+      <c r="C56" t="s">
+        <v>71</v>
+      </c>
+      <c r="D56" t="s">
+        <v>165</v>
+      </c>
+      <c r="E56" t="s">
+        <v>9</v>
+      </c>
+      <c r="F56" t="s">
+        <v>14</v>
+      </c>
+      <c r="G56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57">
+        <v>18330051920316</v>
+      </c>
+      <c r="B57" t="s">
+        <v>67</v>
+      </c>
+      <c r="C57" t="s">
+        <v>103</v>
+      </c>
+      <c r="D57" t="s">
+        <v>166</v>
+      </c>
+      <c r="E57" t="s">
+        <v>9</v>
+      </c>
+      <c r="F57" t="s">
+        <v>14</v>
+      </c>
+      <c r="G57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58">
+        <v>18330051920327</v>
+      </c>
+      <c r="B58" t="s">
+        <v>68</v>
+      </c>
+      <c r="C58" t="s">
+        <v>104</v>
+      </c>
+      <c r="D58" t="s">
+        <v>167</v>
+      </c>
+      <c r="E58" t="s">
+        <v>9</v>
+      </c>
+      <c r="F58" t="s">
+        <v>14</v>
+      </c>
+      <c r="G58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59">
+        <v>18330051920332</v>
+      </c>
+      <c r="B59" t="s">
+        <v>53</v>
+      </c>
+      <c r="C59" t="s">
+        <v>91</v>
+      </c>
+      <c r="D59" t="s">
+        <v>168</v>
+      </c>
+      <c r="E59" t="s">
+        <v>9</v>
+      </c>
+      <c r="F59" t="s">
+        <v>14</v>
+      </c>
+      <c r="G59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60">
+        <v>18330051920334</v>
+      </c>
+      <c r="B60" t="s">
+        <v>42</v>
+      </c>
+      <c r="C60" t="s">
+        <v>105</v>
+      </c>
+      <c r="D60" t="s">
+        <v>169</v>
+      </c>
+      <c r="E60" t="s">
+        <v>9</v>
+      </c>
+      <c r="F60" t="s">
+        <v>14</v>
+      </c>
+      <c r="G60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61">
+        <v>18330051920337</v>
+      </c>
+      <c r="B61" t="s">
+        <v>69</v>
+      </c>
+      <c r="C61" t="s">
+        <v>106</v>
+      </c>
+      <c r="D61" t="s">
+        <v>170</v>
+      </c>
+      <c r="E61" t="s">
+        <v>9</v>
+      </c>
+      <c r="F61" t="s">
+        <v>14</v>
+      </c>
+      <c r="G61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62">
+        <v>18330051920335</v>
+      </c>
+      <c r="B62" t="s">
+        <v>70</v>
+      </c>
+      <c r="C62" t="s">
+        <v>107</v>
+      </c>
+      <c r="D62" t="s">
+        <v>171</v>
+      </c>
+      <c r="E62" t="s">
+        <v>9</v>
+      </c>
+      <c r="F62" t="s">
+        <v>14</v>
+      </c>
+      <c r="G62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63">
+        <v>18330051920344</v>
+      </c>
+      <c r="B63" t="s">
+        <v>71</v>
+      </c>
+      <c r="C63" t="s">
+        <v>108</v>
+      </c>
+      <c r="D63" t="s">
+        <v>172</v>
+      </c>
+      <c r="E63" t="s">
+        <v>9</v>
+      </c>
+      <c r="F63" t="s">
+        <v>14</v>
+      </c>
+      <c r="G63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64">
+        <v>18330051920350</v>
+      </c>
+      <c r="B64" t="s">
+        <v>72</v>
+      </c>
+      <c r="C64" t="s">
+        <v>52</v>
+      </c>
+      <c r="D64" t="s">
+        <v>173</v>
+      </c>
+      <c r="E64" t="s">
+        <v>9</v>
+      </c>
+      <c r="F64" t="s">
+        <v>14</v>
+      </c>
+      <c r="G64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65">
+        <v>18330051920349</v>
+      </c>
+      <c r="B65" t="s">
+        <v>64</v>
+      </c>
+      <c r="C65" t="s">
+        <v>109</v>
+      </c>
+      <c r="D65" t="s">
+        <v>174</v>
+      </c>
+      <c r="E65" t="s">
+        <v>9</v>
+      </c>
+      <c r="F65" t="s">
+        <v>14</v>
+      </c>
+      <c r="G65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66">
+        <v>18330051920427</v>
+      </c>
+      <c r="B66" t="s">
+        <v>73</v>
+      </c>
+      <c r="C66" t="s">
+        <v>110</v>
+      </c>
+      <c r="D66" t="s">
+        <v>175</v>
+      </c>
+      <c r="E66" t="s">
+        <v>9</v>
+      </c>
+      <c r="F66" t="s">
+        <v>14</v>
+      </c>
+      <c r="G66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67">
+        <v>18330051920428</v>
+      </c>
+      <c r="B67" t="s">
+        <v>39</v>
+      </c>
+      <c r="C67" t="s">
+        <v>111</v>
+      </c>
+      <c r="D67" t="s">
+        <v>176</v>
+      </c>
+      <c r="E67" t="s">
+        <v>9</v>
+      </c>
+      <c r="F67" t="s">
+        <v>14</v>
+      </c>
+      <c r="G67">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/docentes/Velasco Sanchez David - Estadisticos 2020.xlsx
+++ b/docentes/Velasco Sanchez David - Estadisticos 2020.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="80">
   <si>
     <t>Mat</t>
   </si>
@@ -85,6 +85,9 @@
     <t>Reprobadas</t>
   </si>
   <si>
+    <t>SANTIAGO</t>
+  </si>
+  <si>
     <t>CRISTOBAL</t>
   </si>
   <si>
@@ -97,36 +100,39 @@
     <t>SANCHEZ</t>
   </si>
   <si>
+    <t>ROJAS</t>
+  </si>
+  <si>
+    <t>MARQUEZ</t>
+  </si>
+  <si>
+    <t>GUERRA</t>
+  </si>
+  <si>
+    <t>LOPEZ</t>
+  </si>
+  <si>
+    <t>MORALES</t>
+  </si>
+  <si>
+    <t>REYES</t>
+  </si>
+  <si>
+    <t>TEXOCO</t>
+  </si>
+  <si>
+    <t>ZEPAHUA</t>
+  </si>
+  <si>
+    <t>ARIAS</t>
+  </si>
+  <si>
+    <t>ANTONIO</t>
+  </si>
+  <si>
     <t>RUIZ</t>
   </si>
   <si>
-    <t>MARQUEZ</t>
-  </si>
-  <si>
-    <t>GUERRA</t>
-  </si>
-  <si>
-    <t>LOPEZ</t>
-  </si>
-  <si>
-    <t>MORALES</t>
-  </si>
-  <si>
-    <t>REYES</t>
-  </si>
-  <si>
-    <t>TEXOCO</t>
-  </si>
-  <si>
-    <t>ZEPAHUA</t>
-  </si>
-  <si>
-    <t>ARIAS</t>
-  </si>
-  <si>
-    <t>ANTONIO</t>
-  </si>
-  <si>
     <t>DIAZ</t>
   </si>
   <si>
@@ -139,6 +145,9 @@
     <t>ZARATE</t>
   </si>
   <si>
+    <t>CRUZ</t>
+  </si>
+  <si>
     <t>ROMERO</t>
   </si>
   <si>
@@ -151,6 +160,9 @@
     <t>TRUJILLO</t>
   </si>
   <si>
+    <t>MAZA</t>
+  </si>
+  <si>
     <t>HERNANDEZ</t>
   </si>
   <si>
@@ -178,15 +190,15 @@
     <t>SORIANO</t>
   </si>
   <si>
-    <t>ROJAS</t>
-  </si>
-  <si>
     <t>IXMATLAHUA</t>
   </si>
   <si>
     <t>CASTILLO</t>
   </si>
   <si>
+    <t>YARITZI</t>
+  </si>
+  <si>
     <t>EDGAR ARMANDO</t>
   </si>
   <si>
@@ -199,34 +211,37 @@
     <t>ERIK JAIR</t>
   </si>
   <si>
+    <t>ANGEL GABRIEL</t>
+  </si>
+  <si>
+    <t>ANDRES</t>
+  </si>
+  <si>
+    <t>JOCELYN</t>
+  </si>
+  <si>
+    <t>MARIA LARET</t>
+  </si>
+  <si>
+    <t>ROCIO TAMARA</t>
+  </si>
+  <si>
+    <t>INGRID PAOLA</t>
+  </si>
+  <si>
+    <t>MAYTE</t>
+  </si>
+  <si>
+    <t>QUETZALI</t>
+  </si>
+  <si>
+    <t>JUAN ALBERTO</t>
+  </si>
+  <si>
+    <t>EDUARDO</t>
+  </si>
+  <si>
     <t>ALFONSO</t>
-  </si>
-  <si>
-    <t>ANDRES</t>
-  </si>
-  <si>
-    <t>JOCELYN</t>
-  </si>
-  <si>
-    <t>MARIA LARET</t>
-  </si>
-  <si>
-    <t>ROCIO TAMARA</t>
-  </si>
-  <si>
-    <t>INGRID PAOLA</t>
-  </si>
-  <si>
-    <t>MAYTE</t>
-  </si>
-  <si>
-    <t>QUETZALI</t>
-  </si>
-  <si>
-    <t>JUAN ALBERTO</t>
-  </si>
-  <si>
-    <t>EDUARDO</t>
   </si>
   <si>
     <t>FLOR LIZZETH</t>
@@ -895,19 +910,19 @@
         <v>34</v>
       </c>
       <c r="D4">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E4">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F4">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G4">
-        <v>67.65000000000001</v>
+        <v>70.59</v>
       </c>
       <c r="H4">
-        <v>8.800000000000001</v>
+        <v>8.300000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1096,13 +1111,13 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F4">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G4">
-        <v>79.41</v>
+        <v>82.34999999999999</v>
       </c>
       <c r="H4">
         <v>7.9</v>
@@ -1193,7 +1208,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1228,22 +1243,22 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>18330051920152</v>
+        <v>19330051920117</v>
       </c>
       <c r="B2" t="s">
         <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -1251,16 +1266,16 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>18330051920160</v>
+        <v>18330051920152</v>
       </c>
       <c r="B3" t="s">
         <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D3" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
@@ -1274,16 +1289,16 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>18330051920172</v>
+        <v>18330051920160</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D4" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E4" t="s">
         <v>9</v>
@@ -1297,16 +1312,16 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>18330051920176</v>
+        <v>18330051920172</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D5" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E5" t="s">
         <v>9</v>
@@ -1320,22 +1335,22 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>17330051920160</v>
+        <v>18330051920176</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="D6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E6" t="s">
         <v>9</v>
       </c>
       <c r="F6" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -1343,22 +1358,22 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>18330051920217</v>
+        <v>18330051920026</v>
       </c>
       <c r="B7" t="s">
         <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D7" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E7" t="s">
         <v>9</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -1366,22 +1381,22 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>18330051920329</v>
+        <v>18330051920217</v>
       </c>
       <c r="B8" t="s">
         <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="D8" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E8" t="s">
         <v>9</v>
       </c>
       <c r="F8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -1389,16 +1404,16 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>18330051920424</v>
+        <v>18330051920329</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D9" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E9" t="s">
         <v>9</v>
@@ -1412,16 +1427,16 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>18330051920339</v>
+        <v>18330051920424</v>
       </c>
       <c r="B10" t="s">
         <v>30</v>
       </c>
       <c r="C10" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D10" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E10" t="s">
         <v>9</v>
@@ -1435,16 +1450,16 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>18330051920342</v>
+        <v>18330051920339</v>
       </c>
       <c r="B11" t="s">
         <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D11" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E11" t="s">
         <v>9</v>
@@ -1458,16 +1473,16 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
-        <v>18330051920347</v>
+        <v>18330051920342</v>
       </c>
       <c r="B12" t="s">
         <v>32</v>
       </c>
       <c r="C12" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D12" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E12" t="s">
         <v>9</v>
@@ -1481,16 +1496,16 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13">
-        <v>18330051920352</v>
+        <v>18330051920347</v>
       </c>
       <c r="B13" t="s">
         <v>33</v>
       </c>
       <c r="C13" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D13" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E13" t="s">
         <v>9</v>
@@ -1504,39 +1519,39 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14">
-        <v>18330051920143</v>
+        <v>18330051920352</v>
       </c>
       <c r="B14" t="s">
         <v>34</v>
       </c>
       <c r="C14" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="D14" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E14" t="s">
         <v>9</v>
       </c>
       <c r="F14" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G14">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15">
-        <v>18330051920141</v>
+        <v>18330051920143</v>
       </c>
       <c r="B15" t="s">
         <v>35</v>
       </c>
       <c r="C15" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D15" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E15" t="s">
         <v>9</v>
@@ -1550,22 +1565,22 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16">
-        <v>18330051920094</v>
+        <v>18330051920141</v>
       </c>
       <c r="B16" t="s">
         <v>36</v>
       </c>
       <c r="C16" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D16" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E16" t="s">
         <v>9</v>
       </c>
       <c r="F16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -1573,22 +1588,22 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17">
-        <v>18330051920223</v>
+        <v>17330051920160</v>
       </c>
       <c r="B17" t="s">
         <v>37</v>
       </c>
       <c r="C17" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D17" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E17" t="s">
         <v>9</v>
       </c>
       <c r="F17" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1596,22 +1611,22 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18">
-        <v>18330051920412</v>
+        <v>18330051920094</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="C18" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D18" t="s">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="E18" t="s">
         <v>9</v>
       </c>
       <c r="F18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1619,22 +1634,22 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19">
-        <v>18330051920334</v>
+        <v>18330051920223</v>
       </c>
       <c r="B19" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C19" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="D19" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E19" t="s">
         <v>9</v>
       </c>
       <c r="F19" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1642,22 +1657,22 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20">
-        <v>18330051920337</v>
+        <v>18330051920412</v>
       </c>
       <c r="B20" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D20" t="s">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="E20" t="s">
         <v>9</v>
       </c>
       <c r="F20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1665,16 +1680,16 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21">
-        <v>18330051920427</v>
+        <v>18330051920334</v>
       </c>
       <c r="B21" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="C21" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E21" t="s">
         <v>9</v>
@@ -1683,6 +1698,52 @@
         <v>14</v>
       </c>
       <c r="G21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22">
+        <v>18330051920337</v>
+      </c>
+      <c r="B22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" t="s">
+        <v>57</v>
+      </c>
+      <c r="D22" t="s">
+        <v>78</v>
+      </c>
+      <c r="E22" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23">
+        <v>18330051920427</v>
+      </c>
+      <c r="B23" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" t="s">
+        <v>79</v>
+      </c>
+      <c r="E23" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" t="s">
+        <v>14</v>
+      </c>
+      <c r="G23">
         <v>1</v>
       </c>
     </row>
